--- a/nmadb/481163.xlsx
+++ b/nmadb/481163.xlsx
@@ -1,6 +1,166 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="315" windowWidth="21015" windowHeight="9705"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Outcome:</t>
+  </si>
+  <si>
+    <t>ACR50</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>adalimumab</t>
+  </si>
+  <si>
+    <t>DE019</t>
+  </si>
+  <si>
+    <t>etanercept</t>
+  </si>
+  <si>
+    <t>infliximab</t>
+  </si>
+  <si>
+    <t>Weinblatt</t>
+  </si>
+  <si>
+    <t>abatacept</t>
+  </si>
+  <si>
+    <t>tocilizumab</t>
+  </si>
+  <si>
+    <t>ATTRACT</t>
+  </si>
+  <si>
+    <t>golimumab</t>
+  </si>
+  <si>
+    <t>certolizumab</t>
+  </si>
+  <si>
+    <t>Kremer</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>GOFORWARD</t>
+  </si>
+  <si>
+    <t>RAPID 1</t>
+  </si>
+  <si>
+    <t>RAPID 2</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +302,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +437,475 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>207</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>1999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>86</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>2005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>169</v>
+      </c>
+      <c r="F12">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>146</v>
+      </c>
+      <c r="F18">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>